--- a/va_facility_data_2025-02-20/Somersworth VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Somersworth%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Somersworth VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Somersworth%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R37efbf11ab134cb78d89bac51ca56da4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra7cfa5586e97484e816ae31c84016a42"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R38d893a2c7a54737b751cc09349e61ba"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R83e767bde3f14ea9a80a96f04bac4023"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R45835136abc547fd80fb620bd37852f1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R76aee2778a5545fe9f071ea72ceaa0b2"/>
   </x:sheets>
 </x:workbook>
 </file>
